--- a/local/public/uploads/consignments (13).xlsx
+++ b/local/public/uploads/consignments (13).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tee\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orange-HW\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6904E6-DA97-4FF1-95F3-DF83267DE96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DD5E9C-A00E-4364-B0E6-B24C078A50EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,16 +79,16 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P200001</t>
-  </si>
-  <si>
-    <t>คุณชฎาพร1 พิกุล</t>
-  </si>
-  <si>
-    <t>54/325 90/16 ( หลังตลาดเทวราช )  ต.  อ.  จ.  รหัส ปณ. 10560</t>
-  </si>
-  <si>
-    <t>xxxxxxxxxxxx</t>
+    <t>P100001</t>
+  </si>
+  <si>
+    <t>คุณวันเร็ด เซ็น</t>
+  </si>
+  <si>
+    <t>89/9 ศรีมรกตอพาร์ทเม้นต์ ซอย วัดประยูร(ซอยกลาง) ถนน พหลโยธิน81, ต. , อ.บางกรวย, จ.ปทุมธานี</t>
+  </si>
+  <si>
+    <t>Tel. 092 3611022</t>
   </si>
 </sst>
 </file>
@@ -438,29 +438,29 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="107" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -523,8 +523,8 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
+      <c r="A2">
+        <v>1313</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -534,6 +534,15 @@
       </c>
       <c r="F2" t="s">
         <v>21</v>
+      </c>
+      <c r="G2">
+        <v>12000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/local/public/uploads/consignments (13).xlsx
+++ b/local/public/uploads/consignments (13).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orange-HW\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DD5E9C-A00E-4364-B0E6-B24C078A50EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6904E6-DA97-4FF1-95F3-DF83267DE96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,16 +79,16 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P100001</t>
-  </si>
-  <si>
-    <t>คุณวันเร็ด เซ็น</t>
-  </si>
-  <si>
-    <t>89/9 ศรีมรกตอพาร์ทเม้นต์ ซอย วัดประยูร(ซอยกลาง) ถนน พหลโยธิน81, ต. , อ.บางกรวย, จ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>Tel. 092 3611022</t>
+    <t>P200001</t>
+  </si>
+  <si>
+    <t>คุณชฎาพร1 พิกุล</t>
+  </si>
+  <si>
+    <t>54/325 90/16 ( หลังตลาดเทวราช )  ต.  อ.  จ.  รหัส ปณ. 10560</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxx</t>
   </si>
 </sst>
 </file>
@@ -438,29 +438,29 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="107" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -523,8 +523,8 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1313</v>
+      <c r="A2" t="s">
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -534,15 +534,6 @@
       </c>
       <c r="F2" t="s">
         <v>21</v>
-      </c>
-      <c r="G2">
-        <v>12000</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
